--- a/biology/Médecine/François_Gesnouin/François_Gesnouin.xlsx
+++ b/biology/Médecine/François_Gesnouin/François_Gesnouin.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Fran%C3%A7ois_Gesnouin</t>
+          <t>François_Gesnouin</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">François Jean-Baptiste Gesnouin est un homme politique français né le 15 mai 1750 à Fougères (Ille-et-Vilaine) et mort le 24 février 1814 à Brest (Finistère).
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Fran%C3%A7ois_Gesnouin</t>
+          <t>François_Gesnouin</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Fils de Jean-Baptiste Gesnouin, maître apothicaire, directeur des postes et administrateur des domaines du duc de Penthièvre, Amiral de France, et de Mathurine Gigon.
 Grâce à la protection du duc de Penthièvre, il étudie à Paris chez Cadet de Gassicourt, apothicaire-major des camps et armées du roi, tout en suivant les cours d'Antoine Lavoisier, Fourcroy et Louis-Nicolas Vauquelin. Il rédige également un mémoire intitulé Expériences et observations sur le spath ou fluor spathique qu’il présente à l’Académie des sciences.
@@ -533,7 +547,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Fran%C3%A7ois_Gesnouin</t>
+          <t>François_Gesnouin</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -551,7 +565,9 @@
           <t>Sources</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>« François Gesnouin », dans Adolphe Robert et Gaston Cougny, Dictionnaire des parlementaires français, Edgar Bourloton, 1889-1891 [détail de l’édition]
 "Gesnouin François Jean Baptiste", dans bibliographie de l'académie de marine
